--- a/algoritmos.xlsx
+++ b/algoritmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vetor 100" sheetId="1" r:id="rId1"/>
@@ -20926,7 +20926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
@@ -21677,7 +21677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>0.26</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>0.24</v>
       </c>
@@ -21699,7 +21699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>0.35</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2">
         <v>1000</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2">
         <v>1000</v>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>1000</v>
@@ -21737,7 +21737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2">
         <v>10000</v>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2">
         <v>10000</v>
@@ -21755,7 +21755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2">
         <v>10000</v>
@@ -21764,7 +21764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>100000</v>
@@ -21773,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>100000</v>
@@ -21782,7 +21782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2">
         <v>100000</v>
@@ -21791,7 +21791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2">
         <v>1000000</v>
@@ -21800,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2">
         <v>1000000</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="5">
         <v>1000000</v>
@@ -21817,6 +21817,9 @@
       <c r="C79" s="6" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="17"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
@@ -24634,8 +24637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25865,8 +25868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
